--- a/archivos/RTrasiegoRemision.xlsx
+++ b/archivos/RTrasiegoRemision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998299F6-4273-4805-A94D-89AA1B23598C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093FF588-A871-429C-ADF7-B8448B019D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -330,35 +330,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -372,10 +345,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,13 +468,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>742485</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -490,13 +490,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="28575" y="0"/>
+          <a:ext cx="2800349" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -811,7 +818,7 @@
   <dimension ref="B1:K1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,61 +836,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -891,8 +898,8 @@
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="8"/>
       <c r="I8" s="4"/>
     </row>
@@ -900,17 +907,17 @@
       <c r="D10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F11" s="5"/>
@@ -920,19 +927,19 @@
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F13" s="5"/>
@@ -942,8 +949,8 @@
       <c r="D14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1" t="s">
         <v>11</v>
@@ -963,44 +970,44 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="F19" s="5"/>
@@ -3666,22 +3673,22 @@
       <c r="G551" s="5"/>
     </row>
     <row r="552" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D552" s="21" t="s">
+      <c r="D552" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E552" s="21"/>
-      <c r="F552" s="28" t="s">
+      <c r="E552" s="29"/>
+      <c r="F552" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G552" s="28"/>
+      <c r="G552" s="30"/>
       <c r="H552" s="14"/>
       <c r="I552" s="9"/>
     </row>
     <row r="553" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F553" s="22" t="s">
+      <c r="F553" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G553" s="22"/>
+      <c r="G553" s="32"/>
       <c r="H553" s="15"/>
       <c r="I553" s="16"/>
     </row>
@@ -3694,17 +3701,17 @@
       <c r="G555" s="5"/>
     </row>
     <row r="556" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D556" s="21" t="s">
+      <c r="D556" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E556" s="21"/>
-      <c r="F556" s="21"/>
+      <c r="E556" s="29"/>
+      <c r="F556" s="29"/>
       <c r="G556" s="17"/>
-      <c r="H556" s="21" t="s">
+      <c r="H556" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I556" s="21"/>
-      <c r="J556" s="21"/>
+      <c r="I556" s="29"/>
+      <c r="J556" s="29"/>
     </row>
     <row r="557" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F557" s="5"/>
@@ -3728,52 +3735,52 @@
       <c r="J560" s="9"/>
     </row>
     <row r="561" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D561" s="21" t="s">
+      <c r="D561" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E561" s="21"/>
-      <c r="F561" s="21"/>
+      <c r="E561" s="29"/>
+      <c r="F561" s="29"/>
       <c r="G561" s="5"/>
-      <c r="H561" s="21" t="s">
+      <c r="H561" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I561" s="21"/>
-      <c r="J561" s="21"/>
+      <c r="I561" s="29"/>
+      <c r="J561" s="29"/>
     </row>
     <row r="562" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F562" s="5"/>
       <c r="G562" s="5"/>
     </row>
     <row r="563" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D563" s="19" t="s">
+      <c r="D563" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E563" s="19"/>
-      <c r="F563" s="19"/>
+      <c r="E563" s="31"/>
+      <c r="F563" s="31"/>
       <c r="G563" s="5"/>
     </row>
     <row r="564" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D564" s="19" t="s">
+      <c r="D564" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E564" s="19"/>
-      <c r="F564" s="19"/>
+      <c r="E564" s="31"/>
+      <c r="F564" s="31"/>
       <c r="G564" s="5"/>
     </row>
     <row r="565" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D565" s="19" t="s">
+      <c r="D565" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E565" s="19"/>
-      <c r="F565" s="19"/>
+      <c r="E565" s="31"/>
+      <c r="F565" s="31"/>
       <c r="G565" s="5"/>
     </row>
     <row r="566" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D566" s="19" t="s">
+      <c r="D566" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E566" s="19"/>
-      <c r="F566" s="19"/>
+      <c r="E566" s="31"/>
+      <c r="F566" s="31"/>
       <c r="G566" s="5"/>
     </row>
     <row r="567" spans="4:10" x14ac:dyDescent="0.25">
@@ -5554,19 +5561,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F1:K4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D552:E552"/>
-    <mergeCell ref="F552:G552"/>
-    <mergeCell ref="J17:J18"/>
     <mergeCell ref="D566:F566"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="H556:J556"/>
@@ -5581,6 +5575,19 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D552:E552"/>
+    <mergeCell ref="F552:G552"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F1:K4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
